--- a/df_manutencao.xlsx
+++ b/df_manutencao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\Apontamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43346E3E-303E-4E1A-AE35-126D9135386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036EFFA6-4396-4C5D-B1FF-7D89F7E45036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>Última Manutenção</t>
   </si>
@@ -65,24 +65,12 @@
     <t>CARPINTARIA</t>
   </si>
   <si>
-    <t>CA-CO-01</t>
-  </si>
-  <si>
     <t>CA-FH-01</t>
   </si>
   <si>
-    <t>CA-SF-01</t>
-  </si>
-  <si>
-    <t>CA-MO-02</t>
-  </si>
-  <si>
     <t>ESTAMPARIA</t>
   </si>
   <si>
-    <t>ES-DE-01</t>
-  </si>
-  <si>
     <t>USINAGEM</t>
   </si>
   <si>
@@ -101,24 +89,9 @@
     <t>UTILIDADES</t>
   </si>
   <si>
-    <t>UT-SE-03</t>
-  </si>
-  <si>
-    <t>CORRUPIO</t>
-  </si>
-  <si>
     <t>FURADEIRA HORIZONTAL</t>
   </si>
   <si>
-    <t>SERRA FITA</t>
-  </si>
-  <si>
-    <t>MONOVIA</t>
-  </si>
-  <si>
-    <t>DESBOBINADOR</t>
-  </si>
-  <si>
     <t>TORNO CNC</t>
   </si>
   <si>
@@ -128,9 +101,6 @@
     <t>PALETEIRA TOYOTA 02</t>
   </si>
   <si>
-    <t>SUBESTAÇÃO 02</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -138,6 +108,210 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>ES-GU-01</t>
+  </si>
+  <si>
+    <t>GUILHOTINA - HIMECA 0470</t>
+  </si>
+  <si>
+    <t>ES-GC-01</t>
+  </si>
+  <si>
+    <t>GUILHOTINA CNC QC12K-6X4000 - 0471</t>
+  </si>
+  <si>
+    <t>PINTURA</t>
+  </si>
+  <si>
+    <t>PI-PU-01</t>
+  </si>
+  <si>
+    <t>SISTEMA TEMAC</t>
+  </si>
+  <si>
+    <t>ES-GM-01</t>
+  </si>
+  <si>
+    <t>GUILHOTINA MANUAL</t>
+  </si>
+  <si>
+    <t>US-CU-01</t>
+  </si>
+  <si>
+    <t>CENTRO DE USINAGEM</t>
+  </si>
+  <si>
+    <t>UT-CO-01</t>
+  </si>
+  <si>
+    <t>COMPRESSOR SCHULZ SRP 4040 - PINTURA</t>
+  </si>
+  <si>
+    <t>PI-CL-01</t>
+  </si>
+  <si>
+    <t>CABINE DE LIMPEZA DELTEC</t>
+  </si>
+  <si>
+    <t>PI-CP-01</t>
+  </si>
+  <si>
+    <t>CABINE DE PINTURA DELTEC</t>
+  </si>
+  <si>
+    <t>PI-CC-01</t>
+  </si>
+  <si>
+    <t>CABINE DE CURA DELTEC</t>
+  </si>
+  <si>
+    <t>PI-CS-01</t>
+  </si>
+  <si>
+    <t>CABINE DE SECAGEM DELTEC</t>
+  </si>
+  <si>
+    <t>ES-PL-02</t>
+  </si>
+  <si>
+    <t>PLASMA 02</t>
+  </si>
+  <si>
+    <t>ES-PL-01</t>
+  </si>
+  <si>
+    <t>PLASMA 01</t>
+  </si>
+  <si>
+    <t>ES-VI-05</t>
+  </si>
+  <si>
+    <t>VIRADEIRA 3 mt trumpf</t>
+  </si>
+  <si>
+    <t>US-TC-02</t>
+  </si>
+  <si>
+    <t>US-SE-03</t>
+  </si>
+  <si>
+    <t>SERRA</t>
+  </si>
+  <si>
+    <t>US-SE-04</t>
+  </si>
+  <si>
+    <t>PI-SP-01</t>
+  </si>
+  <si>
+    <t>SPRAY ERZINGER</t>
+  </si>
+  <si>
+    <t>UT-PO-06</t>
+  </si>
+  <si>
+    <t>SPRAY - ERZINGER -</t>
+  </si>
+  <si>
+    <t>PI-CP-02</t>
+  </si>
+  <si>
+    <t>CABINE DE PINTURA ERZINGER</t>
+  </si>
+  <si>
+    <t>ES-VI-04</t>
+  </si>
+  <si>
+    <t>VIRADEIRA 5 mt chinesa</t>
+  </si>
+  <si>
+    <t>PI-SE-02</t>
+  </si>
+  <si>
+    <t>SISTEMA ELETROSTÁTICO 02 EMBRASER</t>
+  </si>
+  <si>
+    <t>PI-TR-01</t>
+  </si>
+  <si>
+    <t>TRANSPORTADOR</t>
+  </si>
+  <si>
+    <t>ES-LA-01</t>
+  </si>
+  <si>
+    <t>LASER WELLE</t>
+  </si>
+  <si>
+    <t>PI-SE-01</t>
+  </si>
+  <si>
+    <t>SISTEMA ELETROSTÁTICO 01 EMBRASER</t>
+  </si>
+  <si>
+    <t>EM-EM-02</t>
+  </si>
+  <si>
+    <t>EMPILHADEIRA TOYOTA</t>
+  </si>
+  <si>
+    <t>EM-PA-02</t>
+  </si>
+  <si>
+    <t>PALETEIRA TOYOTA 01</t>
+  </si>
+  <si>
+    <t>PI-EG-01</t>
+  </si>
+  <si>
+    <t>ESTUFA DE GÁS ERZINGER</t>
+  </si>
+  <si>
+    <t>ES-LC-01</t>
+  </si>
+  <si>
+    <t>LEVANTADOR DE CHAPA (MICROLIFT)</t>
+  </si>
+  <si>
+    <t>PI-TA-01</t>
+  </si>
+  <si>
+    <t>TRANSPORTADOR AÉREO ERZINGER</t>
+  </si>
+  <si>
+    <t>EM-PO-06</t>
+  </si>
+  <si>
+    <t>PONTE 4 TON</t>
+  </si>
+  <si>
+    <t>EM-PO-05</t>
+  </si>
+  <si>
+    <t>PONTE 6 TON</t>
+  </si>
+  <si>
+    <t>EM-PO-07</t>
+  </si>
+  <si>
+    <t>EM-PO-02</t>
+  </si>
+  <si>
+    <t>PONTE 5 TON</t>
+  </si>
+  <si>
+    <t>EM-PO-03</t>
+  </si>
+  <si>
+    <t>PONTE 3 TON</t>
+  </si>
+  <si>
+    <t>ES-VI-03</t>
+  </si>
+  <si>
+    <t>VIRADEIRA 3 mt himeca</t>
   </si>
 </sst>
 </file>
@@ -520,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,180 +738,779 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>44938</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D31" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
-        <v>44938</v>
+      <c r="F33" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44986</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
